--- a/medicine/Enfance/Institut_américain_de_l'enfance/Institut_américain_de_l'enfance.xlsx
+++ b/medicine/Enfance/Institut_américain_de_l'enfance/Institut_américain_de_l'enfance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Institut_am%C3%A9ricain_de_l%27enfance</t>
+          <t>Institut_américain_de_l'enfance</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Institut américain de l'enfance (ou Instituto Interamericano del Niño (IIN)), est une organisation chargée de promouvoir le bien-être de la maternité et de l'enfance dans les pays américains.
 Créé le 9 juin 1927 sur l'initiative du pédiatre uruguayen Luis Morquio, il a été reconnu comme organisme spécialisé de l'OEA en 1949. La Direction Générale a son siège à Montevideo, Uruguay. Entre 1927 et 1962, il a porté le nom d'Instituto Internacional Americano de Protección a la Infancia.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Institut_am%C3%A9ricain_de_l%27enfance</t>
+          <t>Institut_américain_de_l'enfance</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Organisation de l'IIN</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Congreso Panamericano del Niño, plus haute instance établissant les politiques et directives, choisit les autorités. Elle se réunit tous les quatre ans, et intègre les pays membres de l'IIN.
 Consejo Directivo, charger de formuler la politique générale et défendre l'accomplissement des mandats du Congrès. Y siège un représentant de chaque État membre de l'INN
